--- a/20211005DDE.xlsx
+++ b/20211005DDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyang/Desktop/DDE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BE9B9-1816-0648-B54E-F2EA00501D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB1090-43F1-4883-BF80-4A1EB6401D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="6400" windowWidth="23260" windowHeight="12580" xr2:uid="{69ECAC08-99CF-415C-BD36-85C74AC82482}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69ECAC08-99CF-415C-BD36-85C74AC82482}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
   </si>
@@ -63,9 +63,6 @@
     <t>理論基差</t>
   </si>
   <si>
-    <t>總委買量</t>
-  </si>
-  <si>
     <t>總委賣量</t>
   </si>
   <si>
@@ -80,12 +77,36 @@
   <si>
     <t>累積賣成筆</t>
   </si>
+  <si>
+    <t>I/K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總委買量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,9 +145,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,20 +574,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F6B52B-876C-472A-BBE9-6F4F54F16C55}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:N20"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,25 +613,40 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -663,8 +702,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P2">
+        <f>I2/K2</f>
+        <v>1.8724085153749825</v>
+      </c>
+      <c r="Q2">
+        <f>J2/L2</f>
+        <v>1.8531796841655996</v>
+      </c>
+      <c r="R2">
+        <f>P2-Q2</f>
+        <v>1.9228831209382902E-2</v>
+      </c>
+      <c r="S2">
+        <f>N2-M2</f>
+        <v>77</v>
+      </c>
+      <c r="T2">
+        <f>L2-N2</f>
+        <v>496</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -716,8 +775,28 @@
       <c r="N3">
         <v>6888</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P20" si="0">I3/K3</f>
+        <v>1.8946775556181357</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q20" si="1">J3/L3</f>
+        <v>1.9201428571428572</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R20" si="2">P3-Q3</f>
+        <v>-2.5465301524721484E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="3">N3-M3</f>
+        <v>432</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T20" si="4">L3-N3</f>
+        <v>112</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -769,8 +848,24 @@
       <c r="N4">
         <v>6111</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.8705686083692479</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>1.8669796557120502</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>3.5889526571977193E-3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>354</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -823,8 +918,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1.9145750142612663</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1.7794287362954415</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0.13514627796582479</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>399</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -876,8 +991,28 @@
       <c r="N6">
         <v>6222</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1.8303882009183248</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1.8496695260863452</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>-1.9281325168020391E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>889</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -930,8 +1065,24 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1.9343270988609198</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1.8731428571428572</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>6.1184241718062582E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -984,8 +1135,28 @@
       <c r="N8">
         <v>6666</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1.8840579710144927</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>2.2145528731723902</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>-0.33049490215789756</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>-784</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1039,8 +1210,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1.7701561300230355</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1.857163181106843</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>-8.7007051083807463E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1094,8 +1285,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1.7701561300230355</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1.857163181106843</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>-8.7007051083807463E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1149,8 +1360,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1.7701561300230355</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1.857163181106843</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>-8.7007051083807463E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1202,8 +1433,28 @@
       <c r="N12">
         <v>6222</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1.8303882009183248</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1.8496695260863452</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>-1.9281325168020391E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>889</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1256,8 +1507,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>1.9343270988609198</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1.8731428571428572</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>6.1184241718062582E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>467</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1310,8 +1581,28 @@
       <c r="N14">
         <v>6666</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1.8840579710144927</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2.2145528731723902</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>-0.33049490215789756</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>-784</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1365,8 +1656,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1.7701561300230355</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1.857163181106843</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>-8.7007051083807463E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1420,8 +1731,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1.7701561300230355</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1.857163181106843</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>-8.7007051083807463E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1475,8 +1806,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>1.7701561300230355</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1.857163181106843</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>-8.7007051083807463E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1528,8 +1879,28 @@
       <c r="N18">
         <v>6222</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>1.8303882009183248</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1.8496695260863452</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>-1.9281325168020391E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>889</v>
+      </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1582,8 +1953,28 @@
         <f>[1]!TXFJ1.291</f>
         <v>6533</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>1.9343270988609198</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>1.8731428571428572</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>6.1184241718062582E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>467</v>
+      </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>[1]!TXFJ1.122</f>
         <v>20211006</v>
@@ -1635,6 +2026,26 @@
       </c>
       <c r="N20">
         <v>6666</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1.8840579710144927</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>2.2145528731723902</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>-0.33049490215789756</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>-784</v>
       </c>
     </row>
   </sheetData>

--- a/20211005DDE.xlsx
+++ b/20211005DDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB1090-43F1-4883-BF80-4A1EB6401D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE694D3B-7F27-4BA7-80CE-69D1A8A9D7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69ECAC08-99CF-415C-BD36-85C74AC82482}"/>
+    <workbookView xWindow="750" yWindow="1890" windowWidth="25575" windowHeight="11385" xr2:uid="{69ECAC08-99CF-415C-BD36-85C74AC82482}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L-N</t>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -864,6 +864,10 @@
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>918</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1080,6 +1084,10 @@
       <c r="S7">
         <f t="shared" si="3"/>
         <v>77</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
